--- a/3年実験/D.光センサの使い方/images/Cds.xlsx
+++ b/3年実験/D.光センサの使い方/images/Cds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayumu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/len/Documents/GitHub/report/3年実験/D.光センサの使い方/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{936BAC66-211E-4E4D-BC34-51FA3069B43D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC1748F-64B8-F344-B404-76C044660CE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{635F3159-8A81-F54E-B5E4-EB1833C04618}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{635F3159-8A81-F54E-B5E4-EB1833C04618}"/>
   </bookViews>
   <sheets>
     <sheet name="基本特性" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="游ゴシック (本文)"/>
-        <charset val="128"/>
       </rPr>
       <t>C</t>
     </r>
@@ -122,7 +121,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック (本文)"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,39 +180,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1952686632645988E-2"/>
+          <c:y val="0.10784687382146897"/>
+          <c:w val="0.89218587641720737"/>
+          <c:h val="0.77899357736306185"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -235,7 +213,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -246,12 +224,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -417,6 +393,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -434,6 +411,99 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>F</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>[mA](log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.90077268109081676"/>
+              <c:y val="0.9574384498930113"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -442,9 +512,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -456,12 +525,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -497,6 +563,105 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>R</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>[kΩ](log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -505,9 +670,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -519,12 +683,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -541,7 +702,11 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -562,12 +727,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1151,15 +1311,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
+      <xdr:colOff>447040</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1486,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25201864-3741-C040-A174-6F8D22468560}">
   <dimension ref="B2:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1671,7 +1831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3864C59-31DD-E245-99A5-71340B06F51B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
